--- a/results/results-sizes.xlsx
+++ b/results/results-sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081EF76-8D49-4456-BDFE-44E3CC81B3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB508D-9FB8-47E1-8E80-8DBE7D9AE604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-1968" windowWidth="19392" windowHeight="10392" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>m = 20</t>
   </si>
@@ -45,15 +45,6 @@
     <t>star tree setup 1</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>m-dep</t>
-  </si>
-  <si>
-    <t>U-stat</t>
-  </si>
-  <si>
     <t>LR</t>
   </si>
   <si>
@@ -62,13 +53,23 @@
   <si>
     <t>caterpillar tree</t>
   </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -108,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -225,19 +226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -256,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,56 +267,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE9B96-2516-48F5-9B22-0E368715A17B}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,418 +673,590 @@
     <col min="4" max="4" width="6.7109375" style="7" customWidth="1"/>
     <col min="5" max="6" width="6.7109375" style="1" customWidth="1"/>
     <col min="7" max="10" width="6.7109375" style="7" customWidth="1"/>
-    <col min="11" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>100</v>
       </c>
       <c r="B3" s="2">
         <v>0.01</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="C3" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="2">
         <v>0.05</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="C4" s="8">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="C5" s="11">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="34">
+        <v>0.21</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>250</v>
       </c>
       <c r="B6" s="2">
         <v>0.01</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="C6" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="10">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="2">
         <v>0.05</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="C7" s="8">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="32">
+        <v>0.27</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="C8" s="11">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="13">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>500</v>
       </c>
       <c r="B9" s="2">
         <v>0.01</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="C9" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="14">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="10">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="C10" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="14">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="10">
+        <v>0.626</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
       <c r="B11" s="3">
         <v>0.1</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="C11" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.124</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="34">
+        <v>0.74</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>1000</v>
       </c>
       <c r="B12" s="2">
         <v>0.01</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="14">
         <v>2E-3</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G12" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="30">
         <v>0</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="10">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="2">
         <v>0.05</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="14">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G13" s="26">
         <v>0.03</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="29">
         <v>0.04</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="29">
         <v>0.03</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="10">
         <v>0.94399999999999995</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="3">
         <v>0.1</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="G14" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="11">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="11">
         <v>7.8E-2</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="13">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>2000</v>
       </c>
       <c r="B15" s="2">
         <v>0.01</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="C15" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="33">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
       <c r="B16" s="2">
         <v>0.05</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="C16" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="33">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="2">
         <v>0.1</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="21"/>
+      <c r="C17" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.06</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>9.4E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.104</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="33">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/results/results-sizes.xlsx
+++ b/results/results-sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EB508D-9FB8-47E1-8E80-8DBE7D9AE604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA236793-381F-4A18-AE7C-8A4AA81C05BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="-1968" windowWidth="19392" windowHeight="10392" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>m = 20</t>
   </si>
@@ -62,6 +62,9 @@
   <si>
     <t>Test 3</t>
   </si>
+  <si>
+    <t>ok</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +72,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -295,6 +298,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,43 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,7 +666,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,28 +682,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="22" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +752,7 @@
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="30">
         <v>100</v>
       </c>
       <c r="B3" s="2">
@@ -758,7 +761,7 @@
       <c r="C3" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="24">
         <v>0.3</v>
       </c>
       <c r="E3" s="8"/>
@@ -775,14 +778,20 @@
       <c r="J3" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2">
         <v>0.05</v>
       </c>
@@ -793,7 +802,7 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="27">
+      <c r="F4" s="20">
         <v>0.05</v>
       </c>
       <c r="G4" s="9">
@@ -806,14 +815,16 @@
       <c r="J4" s="10">
         <v>0.13400000000000001</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9">
+        <v>0.216</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
@@ -834,23 +845,25 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="34">
+      <c r="J5" s="27">
         <v>0.21</v>
       </c>
-      <c r="K5" s="12"/>
+      <c r="K5" s="12">
+        <v>0.42</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="30">
         <v>250</v>
       </c>
       <c r="B6" s="2">
         <v>0.01</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="20">
         <v>0.01</v>
       </c>
       <c r="D6" s="8">
@@ -860,7 +873,7 @@
       <c r="F6" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="19">
         <v>0.01</v>
       </c>
       <c r="H6" s="14">
@@ -870,14 +883,16 @@
       <c r="J6" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9">
+        <v>2E-3</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2">
         <v>0.05</v>
       </c>
@@ -898,17 +913,19 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="32">
+      <c r="J7" s="25">
         <v>0.27</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -922,7 +939,7 @@
       <c r="F8" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="18">
         <v>0.11</v>
       </c>
       <c r="H8" s="11">
@@ -932,14 +949,16 @@
       <c r="J8" s="13">
         <v>0.39800000000000002</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="30">
         <v>500</v>
       </c>
       <c r="B9" s="2">
@@ -955,7 +974,7 @@
       <c r="F9" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="19">
         <v>0.01</v>
       </c>
       <c r="H9" s="14">
@@ -965,18 +984,20 @@
       <c r="J9" s="10">
         <v>0.36799999999999999</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="20">
         <v>0.02</v>
       </c>
       <c r="D10" s="8">
@@ -986,7 +1007,7 @@
       <c r="F10" s="8">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="19">
         <v>0.03</v>
       </c>
       <c r="H10" s="14">
@@ -996,45 +1017,49 @@
       <c r="J10" s="10">
         <v>0.626</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3">
         <v>0.1</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="21">
         <v>0.06</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="21">
         <v>0.09</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="18">
         <v>0.08</v>
       </c>
       <c r="H11" s="11">
         <v>0.124</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="34">
+      <c r="J11" s="27">
         <v>0.74</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="30">
         <v>1000</v>
       </c>
       <c r="B12" s="2">
@@ -1056,20 +1081,22 @@
       <c r="H12" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="23">
         <v>0</v>
       </c>
       <c r="J12" s="10">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9">
+        <v>2E-3</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="2">
         <v>0.05</v>
       </c>
@@ -1083,26 +1110,28 @@
       <c r="F13" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="19">
         <v>0.03</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="22">
         <v>0.04</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="22">
         <v>0.03</v>
       </c>
       <c r="J13" s="10">
         <v>0.94399999999999995</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3">
         <v>0.1</v>
       </c>
@@ -1128,14 +1157,16 @@
       <c r="J14" s="13">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="30">
         <v>2000</v>
       </c>
       <c r="B15" s="2">
@@ -1158,24 +1189,26 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="33">
+      <c r="J15" s="26">
         <v>1</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9">
+        <v>2E-3</v>
+      </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2">
         <v>0.05</v>
       </c>
       <c r="C16" s="8">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="20">
         <v>0.03</v>
       </c>
       <c r="E16" s="8"/>
@@ -1189,24 +1222,26 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="I16" s="14"/>
-      <c r="J16" s="33">
+      <c r="J16" s="26">
         <v>1</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9">
+        <v>1.6E-2</v>
+      </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="2">
         <v>0.1</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <v>0.08</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="22">
         <v>0.06</v>
       </c>
       <c r="E17" s="14"/>
@@ -1220,10 +1255,12 @@
         <v>0.104</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="33">
+      <c r="J17" s="26">
         <v>1</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1248,7 +1285,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -1257,8 +1293,9 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results-sizes.xlsx
+++ b/results/results-sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA236793-381F-4A18-AE7C-8A4AA81C05BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9CFA3-02CF-4A86-93CE-9493893E28FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>m = 20</t>
   </si>
@@ -62,9 +62,6 @@
   <si>
     <t>Test 3</t>
   </si>
-  <si>
-    <t>ok</t>
-  </si>
 </sst>
 </file>
 
@@ -74,7 +71,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +100,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,6 +351,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +678,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,12 +793,12 @@
       <c r="K3" s="9">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>10</v>
+      <c r="L3" s="14">
+        <v>0.44600000000000001</v>
       </c>
       <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
-        <v>10</v>
+      <c r="N3" s="35">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O3" s="15"/>
     </row>
@@ -818,9 +830,13 @@
       <c r="K4" s="9">
         <v>0.216</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="22">
+        <v>0.78</v>
+      </c>
       <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="1">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,9 +867,13 @@
       <c r="K5" s="12">
         <v>0.42</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="21">
+        <v>0.92</v>
+      </c>
       <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="N5" s="37">
+        <v>0.37</v>
+      </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,10 +906,13 @@
       <c r="K6" s="9">
         <v>2E-3</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="14">
+        <v>0.20799999999999999</v>
+      </c>
       <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="N6" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -919,9 +942,13 @@
       <c r="K7" s="9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="14">
+        <v>0.30199999999999999</v>
+      </c>
       <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="N7" s="1">
+        <v>0.12</v>
+      </c>
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,9 +979,13 @@
       <c r="K8" s="12">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11">
+        <v>0.38200000000000001</v>
+      </c>
       <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="37">
+        <v>0.16</v>
+      </c>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,9 +1018,13 @@
       <c r="K9" s="9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="14">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="N9" s="1">
+        <v>0.06</v>
+      </c>
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,9 +1055,13 @@
       <c r="K10" s="9">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="1">
+        <v>0.04</v>
+      </c>
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,9 +1092,13 @@
       <c r="K11" s="12">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11">
+        <v>0.11600000000000001</v>
+      </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="N11" s="37">
+        <v>0.08</v>
+      </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,9 +1133,13 @@
       <c r="K12" s="9">
         <v>2E-3</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="14">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="N12" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,9 +1172,13 @@
       <c r="K13" s="9">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="22">
+        <v>0.06</v>
+      </c>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,9 +1211,13 @@
       <c r="K14" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="11">
+        <v>0.106</v>
+      </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="N14" s="37">
+        <v>0.08</v>
+      </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,9 +1250,10 @@
       <c r="K15" s="9">
         <v>2E-3</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="22">
+        <v>0.01</v>
+      </c>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,9 +1284,10 @@
       <c r="K16" s="9">
         <v>1.6E-2</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,9 +1318,10 @@
       <c r="K17" s="9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="14">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">

--- a/results/results-sizes.xlsx
+++ b/results/results-sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9CFA3-02CF-4A86-93CE-9493893E28FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC05CE0-AB0A-43E3-9D38-0E1FCD8DB887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -331,6 +331,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,15 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,28 +694,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="28" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="28" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="33">
         <v>100</v>
       </c>
       <c r="B3" s="2">
@@ -797,13 +797,13 @@
         <v>0.44600000000000001</v>
       </c>
       <c r="M3" s="14"/>
-      <c r="N3" s="35">
+      <c r="N3" s="28">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="2">
         <v>0.05</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
@@ -871,13 +871,13 @@
         <v>0.92</v>
       </c>
       <c r="M5" s="11"/>
-      <c r="N5" s="37">
+      <c r="N5" s="30">
         <v>0.37</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="33">
         <v>250</v>
       </c>
       <c r="B6" s="2">
@@ -910,12 +910,12 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="M6" s="14"/>
-      <c r="N6" s="36">
+      <c r="N6" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="2">
         <v>0.05</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -983,13 +983,13 @@
         <v>0.38200000000000001</v>
       </c>
       <c r="M8" s="11"/>
-      <c r="N8" s="37">
+      <c r="N8" s="30">
         <v>0.16</v>
       </c>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="33">
         <v>500</v>
       </c>
       <c r="B9" s="2">
@@ -1028,7 +1028,7 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="3">
         <v>0.1</v>
       </c>
@@ -1096,13 +1096,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="37">
+      <c r="N11" s="30">
         <v>0.08</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="33">
         <v>1000</v>
       </c>
       <c r="B12" s="2">
@@ -1143,7 +1143,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="2">
         <v>0.05</v>
       </c>
@@ -1182,7 +1182,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3">
         <v>0.1</v>
       </c>
@@ -1215,13 +1215,13 @@
         <v>0.106</v>
       </c>
       <c r="M14" s="11"/>
-      <c r="N14" s="37">
+      <c r="N14" s="30">
         <v>0.08</v>
       </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="33">
         <v>2000</v>
       </c>
       <c r="B15" s="2">
@@ -1257,7 +1257,7 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2">
         <v>0.05</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2">
         <v>0.1</v>
       </c>

--- a/results/results-sizes.xlsx
+++ b/results/results-sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC05CE0-AB0A-43E3-9D38-0E1FCD8DB887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6BB95-AE2F-425E-A268-3D684212C026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>α</t>
   </si>
   <si>
-    <t>star tree setup 1</t>
-  </si>
-  <si>
     <t>LR</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   <si>
     <t>Test 3</t>
   </si>
+  <si>
+    <t>star tree - setup 1</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +71,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,12 +100,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,15 +325,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,6 +344,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE9B96-2516-48F5-9B22-0E368715A17B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,28 +685,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,45 +717,45 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="30">
         <v>100</v>
       </c>
       <c r="B3" s="2">
@@ -776,7 +767,9 @@
       <c r="D3" s="24">
         <v>0.3</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
       <c r="F3" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -786,7 +779,9 @@
       <c r="H3" s="14">
         <v>0.41799999999999998</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="23">
+        <v>0</v>
+      </c>
       <c r="J3" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -796,14 +791,16 @@
       <c r="L3" s="14">
         <v>0.44600000000000001</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="28">
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="2">
         <v>0.05</v>
       </c>
@@ -813,7 +810,9 @@
       <c r="D4" s="8">
         <v>0.69799999999999995</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>2E-3</v>
+      </c>
       <c r="F4" s="20">
         <v>0.05</v>
       </c>
@@ -823,7 +822,9 @@
       <c r="H4" s="14">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
       <c r="J4" s="10">
         <v>0.13400000000000001</v>
       </c>
@@ -833,14 +834,16 @@
       <c r="L4" s="22">
         <v>0.78</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="1">
+      <c r="M4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
         <v>0.24399999999999999</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
@@ -850,7 +853,9 @@
       <c r="D5" s="11">
         <v>0.88400000000000001</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="F5" s="11">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -860,7 +865,9 @@
       <c r="H5" s="11">
         <v>0.95799999999999996</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="35">
+        <v>0</v>
+      </c>
       <c r="J5" s="27">
         <v>0.21</v>
       </c>
@@ -870,14 +877,16 @@
       <c r="L5" s="21">
         <v>0.92</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="30">
+      <c r="M5" s="35">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
         <v>0.37</v>
       </c>
       <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="30">
         <v>250</v>
       </c>
       <c r="B6" s="2">
@@ -889,7 +898,9 @@
       <c r="D6" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
       <c r="F6" s="8">
         <v>1.2E-2</v>
       </c>
@@ -899,7 +910,9 @@
       <c r="H6" s="14">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="23">
+        <v>0</v>
+      </c>
       <c r="J6" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
@@ -909,13 +922,15 @@
       <c r="L6" s="14">
         <v>0.20799999999999999</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="29">
+      <c r="M6" s="23">
         <v>0</v>
       </c>
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="2">
         <v>0.05</v>
       </c>
@@ -925,7 +940,9 @@
       <c r="D7" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="F7" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
@@ -935,7 +952,9 @@
       <c r="H7" s="14">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="J7" s="25">
         <v>0.27</v>
       </c>
@@ -945,14 +964,16 @@
       <c r="L7" s="14">
         <v>0.30199999999999999</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="1">
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
         <v>0.12</v>
       </c>
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -962,7 +983,9 @@
       <c r="D8" s="11">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="F8" s="11">
         <v>8.7999999999999995E-2</v>
       </c>
@@ -972,7 +995,9 @@
       <c r="H8" s="11">
         <v>0.32600000000000001</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="J8" s="13">
         <v>0.39800000000000002</v>
       </c>
@@ -982,14 +1007,16 @@
       <c r="L8" s="11">
         <v>0.38200000000000001</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="30">
+      <c r="M8" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="N8" s="21">
         <v>0.16</v>
       </c>
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="30">
         <v>500</v>
       </c>
       <c r="B9" s="2">
@@ -1001,7 +1028,9 @@
       <c r="D9" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
       <c r="F9" s="8">
         <v>1.2E-2</v>
       </c>
@@ -1011,7 +1040,9 @@
       <c r="H9" s="14">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="J9" s="10">
         <v>0.36799999999999999</v>
       </c>
@@ -1021,14 +1052,16 @@
       <c r="L9" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="1">
+      <c r="M9" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="22">
         <v>0.06</v>
       </c>
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
@@ -1038,7 +1071,9 @@
       <c r="D10" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="F10" s="8">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -1048,7 +1083,9 @@
       <c r="H10" s="14">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14">
+        <v>4.5999999999999999E-2</v>
+      </c>
       <c r="J10" s="10">
         <v>0.626</v>
       </c>
@@ -1058,14 +1095,16 @@
       <c r="L10" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="1">
+      <c r="M10" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="22">
         <v>0.04</v>
       </c>
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3">
         <v>0.1</v>
       </c>
@@ -1075,7 +1114,9 @@
       <c r="D11" s="21">
         <v>0.09</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F11" s="11">
         <v>0.10199999999999999</v>
       </c>
@@ -1085,7 +1126,9 @@
       <c r="H11" s="11">
         <v>0.124</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="J11" s="27">
         <v>0.74</v>
       </c>
@@ -1095,14 +1138,16 @@
       <c r="L11" s="11">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="30">
+      <c r="M11" s="11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N11" s="21">
         <v>0.08</v>
       </c>
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="30">
         <v>1000</v>
       </c>
       <c r="B12" s="2">
@@ -1114,7 +1159,9 @@
       <c r="D12" s="8">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>0.01</v>
+      </c>
       <c r="F12" s="8">
         <v>1.2E-2</v>
       </c>
@@ -1124,8 +1171,8 @@
       <c r="H12" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
+      <c r="I12" s="14">
+        <v>1.2E-2</v>
       </c>
       <c r="J12" s="10">
         <v>0.85599999999999998</v>
@@ -1136,14 +1183,16 @@
       <c r="L12" s="14">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="7">
+      <c r="M12" s="23">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="2">
         <v>0.05</v>
       </c>
@@ -1153,7 +1202,9 @@
       <c r="D13" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>2.4E-2</v>
+      </c>
       <c r="F13" s="8">
         <v>6.2E-2</v>
       </c>
@@ -1163,8 +1214,8 @@
       <c r="H13" s="22">
         <v>0.04</v>
       </c>
-      <c r="I13" s="22">
-        <v>0.03</v>
+      <c r="I13" s="14">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J13" s="10">
         <v>0.94399999999999995</v>
@@ -1175,14 +1226,16 @@
       <c r="L13" s="22">
         <v>0.06</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="1">
+      <c r="M13" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N13" s="14">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3">
         <v>0.1</v>
       </c>
@@ -1192,7 +1245,9 @@
       <c r="D14" s="11">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>6.2E-2</v>
+      </c>
       <c r="F14" s="11">
         <v>0.11</v>
       </c>
@@ -1202,8 +1257,8 @@
       <c r="H14" s="11">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="I14" s="11">
-        <v>7.8E-2</v>
+      <c r="I14" s="21">
+        <v>0.11</v>
       </c>
       <c r="J14" s="13">
         <v>0.96199999999999997</v>
@@ -1214,14 +1269,16 @@
       <c r="L14" s="11">
         <v>0.106</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="30">
+      <c r="M14" s="11">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N14" s="21">
         <v>0.08</v>
       </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="30">
         <v>2000</v>
       </c>
       <c r="B15" s="2">
@@ -1257,7 +1314,7 @@
       <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2">
         <v>0.05</v>
       </c>
@@ -1291,7 +1348,7 @@
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="2">
         <v>0.1</v>
       </c>
@@ -1354,6 +1411,6 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results-sizes.xlsx
+++ b/results/results-sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Documents\Studium\TUM\09_Masterarbeit\master-thesis-tests\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6BB95-AE2F-425E-A268-3D684212C026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46C79AD-71BB-4921-96FE-09BE95D6ED56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10A37585-0CE9-42C1-8EEA-BBFDD8762655}"/>
   </bookViews>
@@ -33,19 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
-    <t>m = 20</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>α</t>
   </si>
   <si>
     <t>LR</t>
-  </si>
-  <si>
-    <t>star tree setup 2</t>
   </si>
   <si>
     <t>caterpillar tree</t>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>star tree - setup 1</t>
+  </si>
+  <si>
+    <t>star tree - setup 2</t>
+  </si>
+  <si>
+    <t>k = 20</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -240,11 +240,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,12 +379,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,6 +401,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -346,10 +415,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -367,6 +457,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35472</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>216118</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5A450D-E930-44D2-8F03-97416B369B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5645369" y="2022584"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE9B96-2516-48F5-9B22-0E368715A17B}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,78 +834,80 @@
     <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="28" t="s">
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="28" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
         <v>100</v>
       </c>
       <c r="B3" s="2">
@@ -767,7 +919,7 @@
       <c r="D3" s="24">
         <v>0.3</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="29">
         <v>0</v>
       </c>
       <c r="F3" s="8">
@@ -799,8 +951,8 @@
       </c>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
       <c r="B4" s="2">
         <v>0.05</v>
       </c>
@@ -842,8 +994,8 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
@@ -865,19 +1017,19 @@
       <c r="H5" s="11">
         <v>0.95799999999999996</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="28">
         <v>0</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <v>0.21</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="18">
         <v>0.42</v>
       </c>
       <c r="L5" s="21">
         <v>0.92</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="28">
         <v>0</v>
       </c>
       <c r="N5" s="21">
@@ -885,8 +1037,8 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
         <v>250</v>
       </c>
       <c r="B6" s="2">
@@ -898,7 +1050,7 @@
       <c r="D6" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="29">
         <v>0</v>
       </c>
       <c r="F6" s="8">
@@ -929,8 +1081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" s="2">
         <v>0.05</v>
       </c>
@@ -972,8 +1124,8 @@
       </c>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
       <c r="B8" s="3">
         <v>0.1</v>
       </c>
@@ -1015,8 +1167,8 @@
       </c>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <v>500</v>
       </c>
       <c r="B9" s="2">
@@ -1028,7 +1180,7 @@
       <c r="D9" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="29">
         <v>0</v>
       </c>
       <c r="F9" s="8">
@@ -1060,8 +1212,8 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
       <c r="B10" s="2">
         <v>0.05</v>
       </c>
@@ -1095,7 +1247,7 @@
       <c r="L10" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="22">
         <v>0.01</v>
       </c>
       <c r="N10" s="22">
@@ -1103,8 +1255,8 @@
       </c>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
       <c r="B11" s="3">
         <v>0.1</v>
       </c>
@@ -1120,95 +1272,95 @@
       <c r="F11" s="11">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="19">
         <v>0.08</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="14">
         <v>0.124</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="25">
         <v>0.74</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="14">
         <v>0.11600000000000001</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="14">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="22">
         <v>0.08</v>
       </c>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+    <row r="12" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
         <v>1000</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="27">
         <v>0.01</v>
       </c>
       <c r="C12" s="14">
         <v>2E-3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="22">
         <v>0.01</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="42">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="41">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="41">
         <v>1.2E-2</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="40">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="42">
         <v>2E-3</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="41">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="45">
         <v>0</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="41">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="2">
+    <row r="13" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="27">
         <v>0.05</v>
       </c>
       <c r="C13" s="14">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="14">
         <v>2.4E-2</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="43">
         <v>0.03</v>
       </c>
       <c r="H13" s="22">
@@ -1217,10 +1369,10 @@
       <c r="I13" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="14">
         <v>0.94399999999999995</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="38">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="L13" s="22">
@@ -1234,151 +1386,80 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="3">
+    <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="27">
         <v>0.1</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="44">
         <v>0.11</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="14">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="22">
         <v>0.11</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="39">
         <v>0.96199999999999997</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="14">
         <v>0.106</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="22">
         <v>0.08</v>
       </c>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>2000</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D15" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H15" s="14">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="26">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0.01</v>
-      </c>
-      <c r="M15" s="14"/>
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="N15" s="7"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="H16" s="14">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="L16" s="14">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="M16" s="14"/>
+    <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="N16" s="7"/>
       <c r="O16" s="15"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.08</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.06</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14">
-        <v>9.4E-2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.104</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="26">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L17" s="14">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="M17" s="14"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="15"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1399,12 +1480,11 @@
       <c r="O18" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A3:A5"/>
@@ -1412,5 +1492,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>